--- a/L_gen.xlsx
+++ b/L_gen.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1839"/>
+  <dimension ref="A1:B2076"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
       <selection activeCell="A89" sqref="A89"/>
@@ -20190,6 +20190,2828 @@
         </is>
       </c>
     </row>
+    <row r="1840">
+      <c r="A1840" t="inlineStr">
+        <is>
+          <t>Brown Brew- Italian Café &amp; Coffee House</t>
+        </is>
+      </c>
+      <c r="B1840" t="inlineStr">
+        <is>
+          <t>tel:09126294262</t>
+        </is>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" t="inlineStr">
+        <is>
+          <t>The Big Tree Cafe Golf Course Road | Big Tree Cafe</t>
+        </is>
+      </c>
+      <c r="B1841" t="inlineStr">
+        <is>
+          <t>tel:08183959595</t>
+        </is>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" t="inlineStr">
+        <is>
+          <t>DiGhent Cafe</t>
+        </is>
+      </c>
+      <c r="B1842" t="inlineStr">
+        <is>
+          <t>tel:01244227444</t>
+        </is>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" t="inlineStr">
+        <is>
+          <t>M cafe</t>
+        </is>
+      </c>
+      <c r="B1843" t="inlineStr">
+        <is>
+          <t>tel:09811481594</t>
+        </is>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" t="inlineStr">
+        <is>
+          <t>Ququ Cafe</t>
+        </is>
+      </c>
+      <c r="B1844" t="inlineStr">
+        <is>
+          <t>tel:08826059898</t>
+        </is>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" t="inlineStr">
+        <is>
+          <t>La Vie Douce - Cafe And Bakery</t>
+        </is>
+      </c>
+      <c r="B1845" t="inlineStr">
+        <is>
+          <t>tel:09910836657</t>
+        </is>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" t="inlineStr">
+        <is>
+          <t>Sakley's The Mountain Cafe</t>
+        </is>
+      </c>
+      <c r="B1846" t="inlineStr">
+        <is>
+          <t>tel:09899996737</t>
+        </is>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" t="inlineStr">
+        <is>
+          <t>Another Fine Day Cafe &amp; Reading Room</t>
+        </is>
+      </c>
+      <c r="B1847" t="inlineStr">
+        <is>
+          <t>tel:01244386155</t>
+        </is>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" t="inlineStr">
+        <is>
+          <t>Guftagu Cafe</t>
+        </is>
+      </c>
+      <c r="B1848" t="inlineStr">
+        <is>
+          <t>tel:09311908999</t>
+        </is>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" t="inlineStr">
+        <is>
+          <t>Garden Lovers Botanical Boutique And Cafe</t>
+        </is>
+      </c>
+      <c r="B1849" t="inlineStr">
+        <is>
+          <t>tel:09818631097</t>
+        </is>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" t="inlineStr">
+        <is>
+          <t>Greenr Cafe</t>
+        </is>
+      </c>
+      <c r="B1850" t="inlineStr">
+        <is>
+          <t>tel:07042575339</t>
+        </is>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" t="inlineStr">
+        <is>
+          <t>Cafe Cálido Gurgaon</t>
+        </is>
+      </c>
+      <c r="B1851" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" t="inlineStr">
+        <is>
+          <t>Pour and Palate | Coffee and Cuisine</t>
+        </is>
+      </c>
+      <c r="B1852" t="inlineStr">
+        <is>
+          <t>tel:08527888903</t>
+        </is>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" t="inlineStr">
+        <is>
+          <t>Moonlight Cafe</t>
+        </is>
+      </c>
+      <c r="B1853" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" t="inlineStr">
+        <is>
+          <t>Cafe By Soul</t>
+        </is>
+      </c>
+      <c r="B1854" t="inlineStr">
+        <is>
+          <t>tel:08826856001</t>
+        </is>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" t="inlineStr">
+        <is>
+          <t>Cafe AURIKA | Garden cafe</t>
+        </is>
+      </c>
+      <c r="B1855" t="inlineStr">
+        <is>
+          <t>tel:08826002788</t>
+        </is>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" t="inlineStr">
+        <is>
+          <t>Cafe Monique</t>
+        </is>
+      </c>
+      <c r="B1856" t="inlineStr">
+        <is>
+          <t>tel:07678269143</t>
+        </is>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" t="inlineStr">
+        <is>
+          <t>B Ten Cafe sector 7</t>
+        </is>
+      </c>
+      <c r="B1857" t="inlineStr">
+        <is>
+          <t>tel:08368667972</t>
+        </is>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" t="inlineStr">
+        <is>
+          <t>The Gully Cafe</t>
+        </is>
+      </c>
+      <c r="B1858" t="inlineStr">
+        <is>
+          <t>tel:08939137645</t>
+        </is>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" t="inlineStr">
+        <is>
+          <t>Hamoni: Cafe by the Greens</t>
+        </is>
+      </c>
+      <c r="B1859" t="inlineStr">
+        <is>
+          <t>tel:07290038887</t>
+        </is>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" t="inlineStr">
+        <is>
+          <t>Kaffee Stories</t>
+        </is>
+      </c>
+      <c r="B1860" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" t="inlineStr">
+        <is>
+          <t>C'est La Vie World Food Cafe - Worldmark</t>
+        </is>
+      </c>
+      <c r="B1861" t="inlineStr">
+        <is>
+          <t>tel:01244051699</t>
+        </is>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" t="inlineStr">
+        <is>
+          <t>B Ten Cafe sector 14</t>
+        </is>
+      </c>
+      <c r="B1862" t="inlineStr">
+        <is>
+          <t>tel:08368667973</t>
+        </is>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" t="inlineStr">
+        <is>
+          <t>Greppo Cafe</t>
+        </is>
+      </c>
+      <c r="B1863" t="inlineStr">
+        <is>
+          <t>tel:08282828154</t>
+        </is>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" t="inlineStr">
+        <is>
+          <t>Cafe Delhi Heights</t>
+        </is>
+      </c>
+      <c r="B1864" t="inlineStr">
+        <is>
+          <t>tel:09555754033</t>
+        </is>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" t="inlineStr">
+        <is>
+          <t>Brick n Bean Cafe Kitchen Bar</t>
+        </is>
+      </c>
+      <c r="B1865" t="inlineStr">
+        <is>
+          <t>tel:09717780084</t>
+        </is>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" t="inlineStr">
+        <is>
+          <t>Cafe Delhi Heights</t>
+        </is>
+      </c>
+      <c r="B1866" t="inlineStr">
+        <is>
+          <t>tel:01244940571</t>
+        </is>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" t="inlineStr">
+        <is>
+          <t>BACKUP CAFE (GURUGRAM)</t>
+        </is>
+      </c>
+      <c r="B1867" t="inlineStr">
+        <is>
+          <t>tel:09650255900</t>
+        </is>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" t="inlineStr">
+        <is>
+          <t>Brick n Bean Cafe Kitchen</t>
+        </is>
+      </c>
+      <c r="B1868" t="inlineStr">
+        <is>
+          <t>tel:09717790094</t>
+        </is>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" t="inlineStr">
+        <is>
+          <t>Caffe-Bella Italia - Best Italian Cafe in Gurugram | Gurgaon</t>
+        </is>
+      </c>
+      <c r="B1869" t="inlineStr">
+        <is>
+          <t>tel:07428580577</t>
+        </is>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" t="inlineStr">
+        <is>
+          <t>Cafe Club</t>
+        </is>
+      </c>
+      <c r="B1870" t="inlineStr">
+        <is>
+          <t>tel:08962171504</t>
+        </is>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" t="inlineStr">
+        <is>
+          <t>Greenr Cafe</t>
+        </is>
+      </c>
+      <c r="B1871" t="inlineStr">
+        <is>
+          <t>tel:07042575339</t>
+        </is>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" t="inlineStr">
+        <is>
+          <t>cafe express</t>
+        </is>
+      </c>
+      <c r="B1872" t="inlineStr">
+        <is>
+          <t>tel:08860280736</t>
+        </is>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" t="inlineStr">
+        <is>
+          <t>The hollywood cafe</t>
+        </is>
+      </c>
+      <c r="B1873" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" t="inlineStr">
+        <is>
+          <t>Chaiholic - best cafe in new colony</t>
+        </is>
+      </c>
+      <c r="B1874" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" t="inlineStr">
+        <is>
+          <t>COLD MONSTERS</t>
+        </is>
+      </c>
+      <c r="B1875" t="inlineStr">
+        <is>
+          <t>tel:08587833775</t>
+        </is>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" t="inlineStr">
+        <is>
+          <t>Cafe 55</t>
+        </is>
+      </c>
+      <c r="B1876" t="inlineStr">
+        <is>
+          <t>tel:09582299419</t>
+        </is>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" t="inlineStr">
+        <is>
+          <t>Madison &amp; Pike</t>
+        </is>
+      </c>
+      <c r="B1877" t="inlineStr">
+        <is>
+          <t>tel:01244088230</t>
+        </is>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" t="inlineStr">
+        <is>
+          <t>Cafe O Lait</t>
+        </is>
+      </c>
+      <c r="B1878" t="inlineStr">
+        <is>
+          <t>tel:01244420000</t>
+        </is>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" t="inlineStr">
+        <is>
+          <t>The Great Grub Cafe Gurugram</t>
+        </is>
+      </c>
+      <c r="B1879" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" t="inlineStr">
+        <is>
+          <t>Fifth Avenue Cafe And Bakery</t>
+        </is>
+      </c>
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t>tel:07982365052</t>
+        </is>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" t="inlineStr">
+        <is>
+          <t>abcoffee Bloom Gurugram</t>
+        </is>
+      </c>
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t>tel:07400150174</t>
+        </is>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" t="inlineStr">
+        <is>
+          <t>ZOCA CAFE ESPLANADE MALL</t>
+        </is>
+      </c>
+      <c r="B1882" t="inlineStr">
+        <is>
+          <t>tel:09599221168</t>
+        </is>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" t="inlineStr">
+        <is>
+          <t>Hashtag cafe</t>
+        </is>
+      </c>
+      <c r="B1883" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" t="inlineStr">
+        <is>
+          <t>Cafe Crush</t>
+        </is>
+      </c>
+      <c r="B1884" t="inlineStr">
+        <is>
+          <t>tel:08368615394</t>
+        </is>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" t="inlineStr">
+        <is>
+          <t>Thr3e kings cafe</t>
+        </is>
+      </c>
+      <c r="B1885" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" t="inlineStr">
+        <is>
+          <t>Warehouse Cafe</t>
+        </is>
+      </c>
+      <c r="B1886" t="inlineStr">
+        <is>
+          <t>tel:09718600666</t>
+        </is>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" t="inlineStr">
+        <is>
+          <t>Love Over Coffee Gurugram Sector 23</t>
+        </is>
+      </c>
+      <c r="B1887" t="inlineStr">
+        <is>
+          <t>tel:09818825064</t>
+        </is>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" t="inlineStr">
+        <is>
+          <t>Chai Bite, Best Tea &amp; Snacks Cafe in Gurgaon</t>
+        </is>
+      </c>
+      <c r="B1888" t="inlineStr">
+        <is>
+          <t>tel:07042874544</t>
+        </is>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" t="inlineStr">
+        <is>
+          <t>Poor Daddy Cafe</t>
+        </is>
+      </c>
+      <c r="B1889" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" t="inlineStr">
+        <is>
+          <t>Chaayos cafe at Global Foyer Mall Palam Vihar Gurgaon</t>
+        </is>
+      </c>
+      <c r="B1890" t="inlineStr">
+        <is>
+          <t>tel:08448182179</t>
+        </is>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" t="inlineStr">
+        <is>
+          <t>Bun &amp; Boota Cafe</t>
+        </is>
+      </c>
+      <c r="B1891" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" t="inlineStr">
+        <is>
+          <t>Roots - Cafe in the Park</t>
+        </is>
+      </c>
+      <c r="B1892" t="inlineStr">
+        <is>
+          <t>tel:09971134920</t>
+        </is>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" t="inlineStr">
+        <is>
+          <t>The Yellow Chilli Cafe</t>
+        </is>
+      </c>
+      <c r="B1893" t="inlineStr">
+        <is>
+          <t>tel:08920605051</t>
+        </is>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" t="inlineStr">
+        <is>
+          <t>Bollywood cafe</t>
+        </is>
+      </c>
+      <c r="B1894" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" t="inlineStr">
+        <is>
+          <t>B Ten cafe sector 4</t>
+        </is>
+      </c>
+      <c r="B1895" t="inlineStr">
+        <is>
+          <t>tel:09953180815</t>
+        </is>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" t="inlineStr">
+        <is>
+          <t>Cafe Delhi Heights</t>
+        </is>
+      </c>
+      <c r="B1896" t="inlineStr">
+        <is>
+          <t>tel:09873084033</t>
+        </is>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" t="inlineStr">
+        <is>
+          <t>AMPM Cafe &amp; Bar</t>
+        </is>
+      </c>
+      <c r="B1897" t="inlineStr">
+        <is>
+          <t>tel:09717780594</t>
+        </is>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" t="inlineStr">
+        <is>
+          <t>Sparsa Cafe and Co Works</t>
+        </is>
+      </c>
+      <c r="B1898" t="inlineStr">
+        <is>
+          <t>tel:09811131058</t>
+        </is>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" t="inlineStr">
+        <is>
+          <t>BestFriendFries</t>
+        </is>
+      </c>
+      <c r="B1899" t="inlineStr">
+        <is>
+          <t>tel:08860063737</t>
+        </is>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" t="inlineStr">
+        <is>
+          <t>Xero Degrees</t>
+        </is>
+      </c>
+      <c r="B1900" t="inlineStr">
+        <is>
+          <t>tel:08448763020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" t="inlineStr">
+        <is>
+          <t>Chaat Puchka Gurugram</t>
+        </is>
+      </c>
+      <c r="B1901" t="inlineStr">
+        <is>
+          <t>tel:08800104043</t>
+        </is>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" t="inlineStr">
+        <is>
+          <t>Cafe, Italiano</t>
+        </is>
+      </c>
+      <c r="B1902" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" t="inlineStr">
+        <is>
+          <t>WeChai Cafe</t>
+        </is>
+      </c>
+      <c r="B1903" t="inlineStr">
+        <is>
+          <t>tel:09815744880</t>
+        </is>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" t="inlineStr">
+        <is>
+          <t>Cafe StayWoke</t>
+        </is>
+      </c>
+      <c r="B1904" t="inlineStr">
+        <is>
+          <t>tel:09818213200</t>
+        </is>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" t="inlineStr">
+        <is>
+          <t>Olly</t>
+        </is>
+      </c>
+      <c r="B1905" t="inlineStr">
+        <is>
+          <t>tel:08130838811</t>
+        </is>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" t="inlineStr">
+        <is>
+          <t>Throttle Shrottle</t>
+        </is>
+      </c>
+      <c r="B1906" t="inlineStr">
+        <is>
+          <t>tel:09560190100</t>
+        </is>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" t="inlineStr">
+        <is>
+          <t>Grotto - Pizzeria|Coffee Shop</t>
+        </is>
+      </c>
+      <c r="B1907" t="inlineStr">
+        <is>
+          <t>tel:09910908290</t>
+        </is>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" t="inlineStr">
+        <is>
+          <t>DFC Food Corner - Best Food in Gurgaon Sector 38</t>
+        </is>
+      </c>
+      <c r="B1908" t="inlineStr">
+        <is>
+          <t>tel:09266318026</t>
+        </is>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" t="inlineStr">
+        <is>
+          <t>Cafe Honey Hut, Gurugram</t>
+        </is>
+      </c>
+      <c r="B1909" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" t="inlineStr">
+        <is>
+          <t>Brother's Hood Cafe</t>
+        </is>
+      </c>
+      <c r="B1910" t="inlineStr">
+        <is>
+          <t>tel:09319901440</t>
+        </is>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" t="inlineStr">
+        <is>
+          <t>चर्चा on Chai</t>
+        </is>
+      </c>
+      <c r="B1911" t="inlineStr">
+        <is>
+          <t>tel:09582904278</t>
+        </is>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" t="inlineStr">
+        <is>
+          <t>Cafe Delhi Heights</t>
+        </is>
+      </c>
+      <c r="B1912" t="inlineStr">
+        <is>
+          <t>tel:09716254033</t>
+        </is>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" t="inlineStr">
+        <is>
+          <t>Mecque Cafe</t>
+        </is>
+      </c>
+      <c r="B1913" t="inlineStr">
+        <is>
+          <t>tel:09971489123</t>
+        </is>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" t="inlineStr">
+        <is>
+          <t>Madhav's cafe</t>
+        </is>
+      </c>
+      <c r="B1914" t="inlineStr">
+        <is>
+          <t>tel:08102543163</t>
+        </is>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" t="inlineStr">
+        <is>
+          <t>Cafe Broccoli</t>
+        </is>
+      </c>
+      <c r="B1915" t="inlineStr">
+        <is>
+          <t>tel:09560867600</t>
+        </is>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" t="inlineStr">
+        <is>
+          <t>Table Stories cafe</t>
+        </is>
+      </c>
+      <c r="B1916" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" t="inlineStr">
+        <is>
+          <t>Gurgaon Juice Corner</t>
+        </is>
+      </c>
+      <c r="B1917" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" t="inlineStr">
+        <is>
+          <t>Nowhere Terrace BrewPub Cafe</t>
+        </is>
+      </c>
+      <c r="B1918" t="inlineStr">
+        <is>
+          <t>tel:09205050770</t>
+        </is>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" t="inlineStr">
+        <is>
+          <t>New Colony Chaap Wale and Cafe</t>
+        </is>
+      </c>
+      <c r="B1919" t="inlineStr">
+        <is>
+          <t>tel:09811563500</t>
+        </is>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" t="inlineStr">
+        <is>
+          <t>Grand Hyatt Gurgaon</t>
+        </is>
+      </c>
+      <c r="B1921" t="inlineStr">
+        <is>
+          <t>tel:01245031234</t>
+        </is>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" t="inlineStr">
+        <is>
+          <t>Cafe Coffee Day</t>
+        </is>
+      </c>
+      <c r="B1922" t="inlineStr">
+        <is>
+          <t>tel:18001025093</t>
+        </is>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" t="inlineStr">
+        <is>
+          <t>Sandhouse - All Day Diner</t>
+        </is>
+      </c>
+      <c r="B1923" t="inlineStr">
+        <is>
+          <t>tel:09999423656</t>
+        </is>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" t="inlineStr">
+        <is>
+          <t>Mr. Shakes Cafe</t>
+        </is>
+      </c>
+      <c r="B1924" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" t="inlineStr">
+        <is>
+          <t>Boho Cafe Leopard Trail</t>
+        </is>
+      </c>
+      <c r="B1925" t="inlineStr">
+        <is>
+          <t>tel:09911732779</t>
+        </is>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" t="inlineStr">
+        <is>
+          <t>CCD Cafe</t>
+        </is>
+      </c>
+      <c r="B1926" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" t="inlineStr">
+        <is>
+          <t>Mr Sandwich Sector 40 Gurugram</t>
+        </is>
+      </c>
+      <c r="B1927" t="inlineStr">
+        <is>
+          <t>tel:08744044477</t>
+        </is>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" t="inlineStr">
+        <is>
+          <t>Under The Neem</t>
+        </is>
+      </c>
+      <c r="B1928" t="inlineStr">
+        <is>
+          <t>tel:09625291720</t>
+        </is>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" t="inlineStr">
+        <is>
+          <t>Sweet Obsession</t>
+        </is>
+      </c>
+      <c r="B1929" t="inlineStr">
+        <is>
+          <t>tel:09910331907</t>
+        </is>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" t="inlineStr">
+        <is>
+          <t>Chaayos Cafe - Galleria Market, Gurgaon</t>
+        </is>
+      </c>
+      <c r="B1930" t="inlineStr">
+        <is>
+          <t>tel:09650064464</t>
+        </is>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" t="inlineStr">
+        <is>
+          <t>Eclairs Cafe &amp; Bakery</t>
+        </is>
+      </c>
+      <c r="B1931" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" t="inlineStr">
+        <is>
+          <t>Cravylicious - Eat | Food | Cafe</t>
+        </is>
+      </c>
+      <c r="B1932" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" t="inlineStr">
+        <is>
+          <t>Motoos, famous vada pav, authentic pav bhaji and kulhad chai)</t>
+        </is>
+      </c>
+      <c r="B1933" t="inlineStr">
+        <is>
+          <t>tel:09930078740</t>
+        </is>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" t="inlineStr">
+        <is>
+          <t>Og's (The Original Grill Company)</t>
+        </is>
+      </c>
+      <c r="B1934" t="inlineStr">
+        <is>
+          <t>tel:09810329893</t>
+        </is>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" t="inlineStr">
+        <is>
+          <t>Greenzilla Cafe</t>
+        </is>
+      </c>
+      <c r="B1935" t="inlineStr">
+        <is>
+          <t>tel:07289988363</t>
+        </is>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" t="inlineStr">
+        <is>
+          <t>Tealogy Cafe Gurgaon</t>
+        </is>
+      </c>
+      <c r="B1936" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" t="inlineStr">
+        <is>
+          <t>aarti cafe</t>
+        </is>
+      </c>
+      <c r="B1937" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" t="inlineStr">
+        <is>
+          <t>Unlocked - Bar, Kitchen and Escape Room</t>
+        </is>
+      </c>
+      <c r="B1938" t="inlineStr">
+        <is>
+          <t>tel:09205979962</t>
+        </is>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" t="inlineStr">
+        <is>
+          <t>32nd Avenue</t>
+        </is>
+      </c>
+      <c r="B1939" t="inlineStr">
+        <is>
+          <t>tel:09870209781</t>
+        </is>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" t="inlineStr">
+        <is>
+          <t>THEOS CYBERHUB GURGAON</t>
+        </is>
+      </c>
+      <c r="B1940" t="inlineStr">
+        <is>
+          <t>tel:08750232226</t>
+        </is>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" t="inlineStr">
+        <is>
+          <t>The Evening talkies</t>
+        </is>
+      </c>
+      <c r="B1941" t="inlineStr">
+        <is>
+          <t>tel:09582464636</t>
+        </is>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" t="inlineStr">
+        <is>
+          <t>Modern Coffee &amp; Burger shop</t>
+        </is>
+      </c>
+      <c r="B1942" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" t="inlineStr">
+        <is>
+          <t>Saini chai point</t>
+        </is>
+      </c>
+      <c r="B1943" t="inlineStr">
+        <is>
+          <t>tel:09560600802</t>
+        </is>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" t="inlineStr">
+        <is>
+          <t>Snapstop Cafe 24X7</t>
+        </is>
+      </c>
+      <c r="B1944" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" t="inlineStr">
+        <is>
+          <t>Costa Coffee</t>
+        </is>
+      </c>
+      <c r="B1945" t="inlineStr">
+        <is>
+          <t>tel:09029002363</t>
+        </is>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" t="inlineStr">
+        <is>
+          <t>FES Cafe &amp; Desserts | Galleria Market, Gurgaon</t>
+        </is>
+      </c>
+      <c r="B1946" t="inlineStr">
+        <is>
+          <t>tel:01244116976</t>
+        </is>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" t="inlineStr">
+        <is>
+          <t>Offers Cafe</t>
+        </is>
+      </c>
+      <c r="B1947" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" t="inlineStr">
+        <is>
+          <t>Artphonso | Best Coffee Shop In Gurgaon | Eggless Bakery and Vegetarian Cafe</t>
+        </is>
+      </c>
+      <c r="B1948" t="inlineStr">
+        <is>
+          <t>tel:09312283491</t>
+        </is>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" t="inlineStr">
+        <is>
+          <t>Cafe Soul Garden</t>
+        </is>
+      </c>
+      <c r="B1949" t="inlineStr">
+        <is>
+          <t>tel:07701907883</t>
+        </is>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" t="inlineStr">
+        <is>
+          <t>Cafe Gufafo</t>
+        </is>
+      </c>
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" t="inlineStr">
+        <is>
+          <t>The Coconut Company</t>
+        </is>
+      </c>
+      <c r="B1951" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" t="inlineStr">
+        <is>
+          <t>The Nature's Hut Cafe</t>
+        </is>
+      </c>
+      <c r="B1952" t="inlineStr">
+        <is>
+          <t>tel:09205301377</t>
+        </is>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" t="inlineStr">
+        <is>
+          <t>Café Treat Crust</t>
+        </is>
+      </c>
+      <c r="B1953" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" t="inlineStr">
+        <is>
+          <t>View Point Coffee Center</t>
+        </is>
+      </c>
+      <c r="B1954" t="inlineStr">
+        <is>
+          <t>tel:09369223287</t>
+        </is>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" t="inlineStr">
+        <is>
+          <t>xxxxxhttps://www.google.com/maps/search/cafe+near+gurugram/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" t="inlineStr">
+        <is>
+          <t>Roastery Coffee House | Sector 144 | Noida</t>
+        </is>
+      </c>
+      <c r="B1956" t="inlineStr">
+        <is>
+          <t>tel:08929649344</t>
+        </is>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" t="inlineStr">
+        <is>
+          <t>The Haven Coffee House</t>
+        </is>
+      </c>
+      <c r="B1957" t="inlineStr">
+        <is>
+          <t>tel:09717059002</t>
+        </is>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" t="inlineStr">
+        <is>
+          <t>Chelvies Coffee | Noida 104</t>
+        </is>
+      </c>
+      <c r="B1958" t="inlineStr">
+        <is>
+          <t>tel:08287833825</t>
+        </is>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" t="inlineStr">
+        <is>
+          <t>Habidade</t>
+        </is>
+      </c>
+      <c r="B1959" t="inlineStr">
+        <is>
+          <t>tel:08799779389</t>
+        </is>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" t="inlineStr">
+        <is>
+          <t>United Coffee House Rewind</t>
+        </is>
+      </c>
+      <c r="B1960" t="inlineStr">
+        <is>
+          <t>tel:09650596113</t>
+        </is>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961" t="inlineStr">
+        <is>
+          <t>Blunch Cafe And Patisserie</t>
+        </is>
+      </c>
+      <c r="B1961" t="inlineStr">
+        <is>
+          <t>tel:09910247477</t>
+        </is>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" t="inlineStr">
+        <is>
+          <t>Cafe 18</t>
+        </is>
+      </c>
+      <c r="B1962" t="inlineStr">
+        <is>
+          <t>tel:09811351161</t>
+        </is>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" t="inlineStr">
+        <is>
+          <t>Woodwill Cafe</t>
+        </is>
+      </c>
+      <c r="B1963" t="inlineStr">
+        <is>
+          <t>tel:07064814185</t>
+        </is>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" t="inlineStr">
+        <is>
+          <t>Cold Rock Cafe</t>
+        </is>
+      </c>
+      <c r="B1964" t="inlineStr">
+        <is>
+          <t>tel:09891091796</t>
+        </is>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" t="inlineStr">
+        <is>
+          <t>Alma Bakery &amp; Cafe Noida sector 104</t>
+        </is>
+      </c>
+      <c r="B1965" t="inlineStr">
+        <is>
+          <t>tel:08920385892</t>
+        </is>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" t="inlineStr">
+        <is>
+          <t>Skyhouse Bar &amp; Cafe</t>
+        </is>
+      </c>
+      <c r="B1966" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" t="inlineStr">
+        <is>
+          <t>Tan Coffee</t>
+        </is>
+      </c>
+      <c r="B1967" t="inlineStr">
+        <is>
+          <t>tel:09971536568</t>
+        </is>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" t="inlineStr">
+        <is>
+          <t>Bunker Cafe</t>
+        </is>
+      </c>
+      <c r="B1968" t="inlineStr">
+        <is>
+          <t>tel:08860982571</t>
+        </is>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" t="inlineStr">
+        <is>
+          <t>Deccan Coffee Club</t>
+        </is>
+      </c>
+      <c r="B1969" t="inlineStr">
+        <is>
+          <t>tel:08660486226</t>
+        </is>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970" t="inlineStr">
+        <is>
+          <t>Bon Amigos Cafe &amp; Kitchen – Noida, Sector 104</t>
+        </is>
+      </c>
+      <c r="B1970" t="inlineStr">
+        <is>
+          <t>tel:09667766419</t>
+        </is>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" t="inlineStr">
+        <is>
+          <t>Café Caffeinated</t>
+        </is>
+      </c>
+      <c r="B1971" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" t="inlineStr">
+        <is>
+          <t>Sparrows At Home Cafe</t>
+        </is>
+      </c>
+      <c r="B1972" t="inlineStr">
+        <is>
+          <t>tel:08447341898</t>
+        </is>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" t="inlineStr">
+        <is>
+          <t>Cafe 99</t>
+        </is>
+      </c>
+      <c r="B1973" t="inlineStr">
+        <is>
+          <t>tel:08586905301</t>
+        </is>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974" t="inlineStr">
+        <is>
+          <t>Cafe AD</t>
+        </is>
+      </c>
+      <c r="B1974" t="inlineStr">
+        <is>
+          <t>tel:09818822188</t>
+        </is>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" t="inlineStr">
+        <is>
+          <t>Bekal Cafe</t>
+        </is>
+      </c>
+      <c r="B1975" t="inlineStr">
+        <is>
+          <t>tel:09718813586</t>
+        </is>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976" t="inlineStr">
+        <is>
+          <t>Kaffiiaa</t>
+        </is>
+      </c>
+      <c r="B1976" t="inlineStr">
+        <is>
+          <t>tel:08010194194</t>
+        </is>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977" t="inlineStr">
+        <is>
+          <t>Café Ciro</t>
+        </is>
+      </c>
+      <c r="B1977" t="inlineStr">
+        <is>
+          <t>tel:09009009830</t>
+        </is>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="A1978" t="inlineStr">
+        <is>
+          <t>Stress Free Cafe</t>
+        </is>
+      </c>
+      <c r="B1978" t="inlineStr">
+        <is>
+          <t>tel:08454870590</t>
+        </is>
+      </c>
+    </row>
+    <row r="1979">
+      <c r="A1979" t="inlineStr">
+        <is>
+          <t>La Strada</t>
+        </is>
+      </c>
+      <c r="B1979" t="inlineStr">
+        <is>
+          <t>tel:08800996108</t>
+        </is>
+      </c>
+    </row>
+    <row r="1980">
+      <c r="A1980" t="inlineStr">
+        <is>
+          <t>Cafe Pamaa || near Advant Noida ||</t>
+        </is>
+      </c>
+      <c r="B1980" t="inlineStr">
+        <is>
+          <t>tel:09560205012</t>
+        </is>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="A1981" t="inlineStr">
+        <is>
+          <t>Kaffia (KA Eclairs &amp; Kafe)</t>
+        </is>
+      </c>
+      <c r="B1981" t="inlineStr">
+        <is>
+          <t>tel:08010194194</t>
+        </is>
+      </c>
+    </row>
+    <row r="1982">
+      <c r="A1982" t="inlineStr">
+        <is>
+          <t>Café Roastique</t>
+        </is>
+      </c>
+      <c r="B1982" t="inlineStr">
+        <is>
+          <t>tel:09220511996</t>
+        </is>
+      </c>
+    </row>
+    <row r="1983">
+      <c r="A1983" t="inlineStr">
+        <is>
+          <t>CheezO Cafe</t>
+        </is>
+      </c>
+      <c r="B1983" t="inlineStr">
+        <is>
+          <t>tel:09128127121</t>
+        </is>
+      </c>
+    </row>
+    <row r="1984">
+      <c r="A1984" t="inlineStr">
+        <is>
+          <t>The Courtyard Diner</t>
+        </is>
+      </c>
+      <c r="B1984" t="inlineStr">
+        <is>
+          <t>tel:08062463538</t>
+        </is>
+      </c>
+    </row>
+    <row r="1985">
+      <c r="A1985" t="inlineStr">
+        <is>
+          <t>Spezia Bistro</t>
+        </is>
+      </c>
+      <c r="B1985" t="inlineStr">
+        <is>
+          <t>tel:07982236660</t>
+        </is>
+      </c>
+    </row>
+    <row r="1986">
+      <c r="A1986" t="inlineStr">
+        <is>
+          <t>THE BLACK COFFEE CAFE - BCC</t>
+        </is>
+      </c>
+      <c r="B1986" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987" t="inlineStr">
+        <is>
+          <t>Coffee Bond Noida Sector 29</t>
+        </is>
+      </c>
+      <c r="B1987" t="inlineStr">
+        <is>
+          <t>tel:09717490606</t>
+        </is>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="A1988" t="inlineStr">
+        <is>
+          <t>Oye Boy Cafe</t>
+        </is>
+      </c>
+      <c r="B1988" t="inlineStr">
+        <is>
+          <t>tel:09045670770</t>
+        </is>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989" t="inlineStr">
+        <is>
+          <t>Minerals - Sector 104, Noida</t>
+        </is>
+      </c>
+      <c r="B1989" t="inlineStr">
+        <is>
+          <t>tel:07861919196</t>
+        </is>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="A1990" t="inlineStr">
+        <is>
+          <t>Say Fontina - Italian | Mediterranean | Coffee | Naples Pizza | Premium Dessert</t>
+        </is>
+      </c>
+      <c r="B1990" t="inlineStr">
+        <is>
+          <t>tel:08009007059</t>
+        </is>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="A1991" t="inlineStr">
+        <is>
+          <t>Cafe FOL</t>
+        </is>
+      </c>
+      <c r="B1991" t="inlineStr">
+        <is>
+          <t>tel:09599874676</t>
+        </is>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" t="inlineStr">
+        <is>
+          <t>Third Wave Coffee</t>
+        </is>
+      </c>
+      <c r="B1992" t="inlineStr">
+        <is>
+          <t>tel:09986652870</t>
+        </is>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993" t="inlineStr">
+        <is>
+          <t>Sheroes Hangout Cafe</t>
+        </is>
+      </c>
+      <c r="B1993" t="inlineStr">
+        <is>
+          <t>tel:09336505530</t>
+        </is>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994" t="inlineStr">
+        <is>
+          <t>Tamarind Kitchen</t>
+        </is>
+      </c>
+      <c r="B1994" t="inlineStr">
+        <is>
+          <t>tel:09289552618</t>
+        </is>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" t="inlineStr">
+        <is>
+          <t>Chelvies Roastery | Noida 144</t>
+        </is>
+      </c>
+      <c r="B1995" t="inlineStr">
+        <is>
+          <t>tel:09911876765</t>
+        </is>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996" t="inlineStr">
+        <is>
+          <t>Cafe Delhi Heights</t>
+        </is>
+      </c>
+      <c r="B1996" t="inlineStr">
+        <is>
+          <t>tel:09873654033</t>
+        </is>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997" t="inlineStr">
+        <is>
+          <t>Zoca Cafe</t>
+        </is>
+      </c>
+      <c r="B1997" t="inlineStr">
+        <is>
+          <t>tel:07533884488</t>
+        </is>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998" t="inlineStr">
+        <is>
+          <t>Café Bean and Basil</t>
+        </is>
+      </c>
+      <c r="B1998" t="inlineStr">
+        <is>
+          <t>tel:09311757318</t>
+        </is>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" t="inlineStr">
+        <is>
+          <t>Blue Tokai Coffee Roasters | Sector 50 Noida</t>
+        </is>
+      </c>
+      <c r="B1999" t="inlineStr">
+        <is>
+          <t>tel:09910307911</t>
+        </is>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" t="inlineStr">
+        <is>
+          <t>The Coffee Cat</t>
+        </is>
+      </c>
+      <c r="B2000" t="inlineStr">
+        <is>
+          <t>tel:08826033305</t>
+        </is>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" t="inlineStr">
+        <is>
+          <t>Cafe On 3 at Holiday Inn Mayur Vihar</t>
+        </is>
+      </c>
+      <c r="B2001" t="inlineStr">
+        <is>
+          <t>tel:08860634441</t>
+        </is>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="A2002" t="inlineStr">
+        <is>
+          <t>Genzee Cafe N Fine Dine</t>
+        </is>
+      </c>
+      <c r="B2002" t="inlineStr">
+        <is>
+          <t>tel:09910392959</t>
+        </is>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003" t="inlineStr">
+        <is>
+          <t>garlic and coffee</t>
+        </is>
+      </c>
+      <c r="B2003" t="inlineStr">
+        <is>
+          <t>tel:07303107755</t>
+        </is>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004" t="inlineStr">
+        <is>
+          <t>Zoca Diner</t>
+        </is>
+      </c>
+      <c r="B2004" t="inlineStr">
+        <is>
+          <t>tel:09205061691</t>
+        </is>
+      </c>
+    </row>
+    <row r="2005">
+      <c r="A2005" t="inlineStr">
+        <is>
+          <t>Ministry of Daru</t>
+        </is>
+      </c>
+      <c r="B2005" t="inlineStr">
+        <is>
+          <t>tel:09667623005</t>
+        </is>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="A2006" t="inlineStr">
+        <is>
+          <t>Ministry of Daru</t>
+        </is>
+      </c>
+      <c r="B2006" t="inlineStr">
+        <is>
+          <t>tel:09667623005</t>
+        </is>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007" t="inlineStr">
+        <is>
+          <t>Walk House</t>
+        </is>
+      </c>
+      <c r="B2007" t="inlineStr">
+        <is>
+          <t>tel:09871366942</t>
+        </is>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="A2008" t="inlineStr">
+        <is>
+          <t>Cafe De'lan</t>
+        </is>
+      </c>
+      <c r="B2008" t="inlineStr">
+        <is>
+          <t>tel:09990126800</t>
+        </is>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="A2009" t="inlineStr">
+        <is>
+          <t>WaB Cafe Sector 130 | Noida</t>
+        </is>
+      </c>
+      <c r="B2009" t="inlineStr">
+        <is>
+          <t>tel:07042552078</t>
+        </is>
+      </c>
+    </row>
+    <row r="2010">
+      <c r="A2010" t="inlineStr">
+        <is>
+          <t>Moksh The Rooftop cafe</t>
+        </is>
+      </c>
+      <c r="B2010" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011" t="inlineStr">
+        <is>
+          <t>Roastery Coffee House | Noida Extension</t>
+        </is>
+      </c>
+      <c r="B2011" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="2012">
+      <c r="A2012" t="inlineStr">
+        <is>
+          <t>Big Yellow Door - Noida Extension</t>
+        </is>
+      </c>
+      <c r="B2012" t="inlineStr">
+        <is>
+          <t>tel:09899917676</t>
+        </is>
+      </c>
+    </row>
+    <row r="2013">
+      <c r="A2013" t="inlineStr">
+        <is>
+          <t>THE BLACK COFFEE CAFE - BCC</t>
+        </is>
+      </c>
+      <c r="B2013" t="inlineStr">
+        <is>
+          <t>tel:07289982986</t>
+        </is>
+      </c>
+    </row>
+    <row r="2014">
+      <c r="A2014" t="inlineStr">
+        <is>
+          <t>Flourmates Bakery &amp; Cafe</t>
+        </is>
+      </c>
+      <c r="B2014" t="inlineStr">
+        <is>
+          <t>tel:09891224488</t>
+        </is>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="A2015" t="inlineStr">
+        <is>
+          <t>TeaGram Cafe</t>
+        </is>
+      </c>
+      <c r="B2015" t="inlineStr">
+        <is>
+          <t>tel:08448441619</t>
+        </is>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="A2016" t="inlineStr">
+        <is>
+          <t>I Sacked Newton</t>
+        </is>
+      </c>
+      <c r="B2016" t="inlineStr">
+        <is>
+          <t>tel:09773504999</t>
+        </is>
+      </c>
+    </row>
+    <row r="2017">
+      <c r="A2017" t="inlineStr">
+        <is>
+          <t>THEOS SECTOR 18 NOIDA</t>
+        </is>
+      </c>
+      <c r="B2017" t="inlineStr">
+        <is>
+          <t>tel:08750232224</t>
+        </is>
+      </c>
+    </row>
+    <row r="2018">
+      <c r="A2018" t="inlineStr">
+        <is>
+          <t>Khameera 104 - Artisanal Sourdough Pizzas and Nitro Coffee</t>
+        </is>
+      </c>
+      <c r="B2018" t="inlineStr">
+        <is>
+          <t>tel:09599118117</t>
+        </is>
+      </c>
+    </row>
+    <row r="2019">
+      <c r="A2019" t="inlineStr">
+        <is>
+          <t>Cafe Culture 24*7</t>
+        </is>
+      </c>
+      <c r="B2019" t="inlineStr">
+        <is>
+          <t>tel:07503181493</t>
+        </is>
+      </c>
+    </row>
+    <row r="2020">
+      <c r="A2020" t="inlineStr">
+        <is>
+          <t>GJ’s Cafe Querido</t>
+        </is>
+      </c>
+      <c r="B2020" t="inlineStr">
+        <is>
+          <t>tel:09911918042</t>
+        </is>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="A2021" t="inlineStr">
+        <is>
+          <t>Tealogy Cafe - Botanical Graden Noida</t>
+        </is>
+      </c>
+      <c r="B2021" t="inlineStr">
+        <is>
+          <t>tel:09717194929</t>
+        </is>
+      </c>
+    </row>
+    <row r="2022">
+      <c r="A2022" t="inlineStr">
+        <is>
+          <t>Breakin' Brew</t>
+        </is>
+      </c>
+      <c r="B2022" t="inlineStr">
+        <is>
+          <t>tel:09818189165</t>
+        </is>
+      </c>
+    </row>
+    <row r="2023">
+      <c r="A2023" t="inlineStr">
+        <is>
+          <t>Dukadiya Crumbs and Coffee</t>
+        </is>
+      </c>
+      <c r="B2023" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="A2024" t="inlineStr">
+        <is>
+          <t>De Nova Café</t>
+        </is>
+      </c>
+      <c r="B2024" t="inlineStr">
+        <is>
+          <t>tel:09999535412</t>
+        </is>
+      </c>
+    </row>
+    <row r="2025">
+      <c r="A2025" t="inlineStr">
+        <is>
+          <t>ATHOSC - Cafe &amp; Restaurant.....BYOB CAFE..... Coworking place</t>
+        </is>
+      </c>
+      <c r="B2025" t="inlineStr">
+        <is>
+          <t>tel:09958919994</t>
+        </is>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="A2026" t="inlineStr">
+        <is>
+          <t>Noida Burger Bite (Cafe&amp;More)</t>
+        </is>
+      </c>
+      <c r="B2026" t="inlineStr">
+        <is>
+          <t>tel:08750920791</t>
+        </is>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="A2027" t="inlineStr">
+        <is>
+          <t>The Tea Shore Cafe</t>
+        </is>
+      </c>
+      <c r="B2027" t="inlineStr">
+        <is>
+          <t>tel:09811214182</t>
+        </is>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="A2028" t="inlineStr">
+        <is>
+          <t>Yummy Tummy - Noida's 1st BYOB Cafe</t>
+        </is>
+      </c>
+      <c r="B2028" t="inlineStr">
+        <is>
+          <t>tel:08860001371</t>
+        </is>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="A2029" t="inlineStr">
+        <is>
+          <t>Vibe In Cafe &amp; Bistro</t>
+        </is>
+      </c>
+      <c r="B2029" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="A2030" t="inlineStr">
+        <is>
+          <t>Della Nucci</t>
+        </is>
+      </c>
+      <c r="B2030" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="A2031" t="inlineStr">
+        <is>
+          <t>क से कैफ़े ( ka se cafe)</t>
+        </is>
+      </c>
+      <c r="B2031" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="A2032" t="inlineStr">
+        <is>
+          <t>Khansamah's Cafe - Best Biryani in Noida</t>
+        </is>
+      </c>
+      <c r="B2032" t="inlineStr">
+        <is>
+          <t>tel:07381867777</t>
+        </is>
+      </c>
+    </row>
+    <row r="2033">
+      <c r="A2033" t="inlineStr">
+        <is>
+          <t>DINE WITH VINES CAFE</t>
+        </is>
+      </c>
+      <c r="B2033" t="inlineStr">
+        <is>
+          <t>tel:08791608352</t>
+        </is>
+      </c>
+    </row>
+    <row r="2034">
+      <c r="A2034" t="inlineStr">
+        <is>
+          <t>Starbucks</t>
+        </is>
+      </c>
+      <c r="B2034" t="inlineStr">
+        <is>
+          <t>tel:18602660010</t>
+        </is>
+      </c>
+    </row>
+    <row r="2035">
+      <c r="A2035" t="inlineStr">
+        <is>
+          <t>Saulé</t>
+        </is>
+      </c>
+      <c r="B2035" t="inlineStr">
+        <is>
+          <t>tel:09158800900</t>
+        </is>
+      </c>
+    </row>
+    <row r="2036">
+      <c r="A2036" t="inlineStr">
+        <is>
+          <t>Rasoiya G Roof Top Cafe</t>
+        </is>
+      </c>
+      <c r="B2036" t="inlineStr">
+        <is>
+          <t>tel:09555189932</t>
+        </is>
+      </c>
+    </row>
+    <row r="2037">
+      <c r="A2037" t="inlineStr">
+        <is>
+          <t>Café Coffee Day</t>
+        </is>
+      </c>
+      <c r="B2037" t="inlineStr">
+        <is>
+          <t>tel:18001025093</t>
+        </is>
+      </c>
+    </row>
+    <row r="2038">
+      <c r="A2038" t="inlineStr">
+        <is>
+          <t>Osteria - Authentic Italian Pizzeria</t>
+        </is>
+      </c>
+      <c r="B2038" t="inlineStr">
+        <is>
+          <t>tel:08595893446</t>
+        </is>
+      </c>
+    </row>
+    <row r="2039">
+      <c r="A2039" t="inlineStr">
+        <is>
+          <t>CAFE #foryou</t>
+        </is>
+      </c>
+      <c r="B2039" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="2040">
+      <c r="A2040" t="inlineStr">
+        <is>
+          <t>Firni, The Play Kitchen</t>
+        </is>
+      </c>
+      <c r="B2040" t="inlineStr">
+        <is>
+          <t>tel:09810725636</t>
+        </is>
+      </c>
+    </row>
+    <row r="2041">
+      <c r="A2041" t="inlineStr">
+        <is>
+          <t>7th Heaven Cafe, Noida</t>
+        </is>
+      </c>
+      <c r="B2041" t="inlineStr">
+        <is>
+          <t>tel:09311127456</t>
+        </is>
+      </c>
+    </row>
+    <row r="2042">
+      <c r="A2042" t="inlineStr">
+        <is>
+          <t>The Burger Club</t>
+        </is>
+      </c>
+      <c r="B2042" t="inlineStr">
+        <is>
+          <t>tel:08800807807</t>
+        </is>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043" t="inlineStr">
+        <is>
+          <t>Blue Tokai Coffee Roasters | Noida Crossword</t>
+        </is>
+      </c>
+      <c r="B2043" t="inlineStr">
+        <is>
+          <t>tel:09311755352</t>
+        </is>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="A2044" t="inlineStr">
+        <is>
+          <t>Last option cafe</t>
+        </is>
+      </c>
+      <c r="B2044" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="2045">
+      <c r="A2045" t="inlineStr">
+        <is>
+          <t>Mohit Yadav chaiwala</t>
+        </is>
+      </c>
+      <c r="B2045" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="2046">
+      <c r="A2046" t="inlineStr">
+        <is>
+          <t>Sandwich Chat Cafe</t>
+        </is>
+      </c>
+      <c r="B2046" t="inlineStr">
+        <is>
+          <t>tel:07291019657</t>
+        </is>
+      </c>
+    </row>
+    <row r="2047">
+      <c r="A2047" t="inlineStr">
+        <is>
+          <t>Blue Tokai Coffee Roasters | Advant Noida</t>
+        </is>
+      </c>
+      <c r="B2047" t="inlineStr">
+        <is>
+          <t>tel:09599203149</t>
+        </is>
+      </c>
+    </row>
+    <row r="2048">
+      <c r="A2048" t="inlineStr">
+        <is>
+          <t>Knight Owlzz</t>
+        </is>
+      </c>
+      <c r="B2048" t="inlineStr">
+        <is>
+          <t>tel:08743005759</t>
+        </is>
+      </c>
+    </row>
+    <row r="2049">
+      <c r="A2049" t="inlineStr">
+        <is>
+          <t>Chaayos Cafe at Advant Noida</t>
+        </is>
+      </c>
+      <c r="B2049" t="inlineStr">
+        <is>
+          <t>tel:18001202424</t>
+        </is>
+      </c>
+    </row>
+    <row r="2050">
+      <c r="A2050" t="inlineStr">
+        <is>
+          <t>Best cafes of india</t>
+        </is>
+      </c>
+      <c r="B2050" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="2051">
+      <c r="A2051" t="inlineStr">
+        <is>
+          <t>BACKYARD CAFE</t>
+        </is>
+      </c>
+      <c r="B2051" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="2052">
+      <c r="A2052" t="inlineStr">
+        <is>
+          <t>Chaayos Cafe - DLF Mall of India, LGF</t>
+        </is>
+      </c>
+      <c r="B2052" t="inlineStr">
+        <is>
+          <t>tel:09599184601</t>
+        </is>
+      </c>
+    </row>
+    <row r="2053">
+      <c r="A2053" t="inlineStr">
+        <is>
+          <t>The Lhasa Lounge</t>
+        </is>
+      </c>
+      <c r="B2053" t="inlineStr">
+        <is>
+          <t>tel:09821117437</t>
+        </is>
+      </c>
+    </row>
+    <row r="2054">
+      <c r="A2054" t="inlineStr">
+        <is>
+          <t>Xero Degrees</t>
+        </is>
+      </c>
+      <c r="B2054" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="2055">
+      <c r="A2055" t="inlineStr">
+        <is>
+          <t>The Greener Side Noida</t>
+        </is>
+      </c>
+      <c r="B2055" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="2056">
+      <c r="A2056" t="inlineStr">
+        <is>
+          <t>Flywheel cafe roasters, noida</t>
+        </is>
+      </c>
+      <c r="B2056" t="inlineStr">
+        <is>
+          <t>tel:07982638817</t>
+        </is>
+      </c>
+    </row>
+    <row r="2057">
+      <c r="A2057" t="inlineStr">
+        <is>
+          <t>The Noida Cafe</t>
+        </is>
+      </c>
+      <c r="B2057" t="inlineStr">
+        <is>
+          <t>tel:09911425355</t>
+        </is>
+      </c>
+    </row>
+    <row r="2058">
+      <c r="A2058" t="inlineStr">
+        <is>
+          <t>California Cake Cafe</t>
+        </is>
+      </c>
+      <c r="B2058" t="inlineStr">
+        <is>
+          <t>tel:08826450191</t>
+        </is>
+      </c>
+    </row>
+    <row r="2059">
+      <c r="A2059" t="inlineStr">
+        <is>
+          <t>TINGALAND Indoor play zone | Starling Retail Noida| Trampoline | Birthday Party venue| Gaming Zone</t>
+        </is>
+      </c>
+      <c r="B2059" t="inlineStr">
+        <is>
+          <t>tel:08929544500</t>
+        </is>
+      </c>
+    </row>
+    <row r="2060">
+      <c r="A2060" t="inlineStr">
+        <is>
+          <t>Supachaay Restaurant &amp; Rooftop Cafe</t>
+        </is>
+      </c>
+      <c r="B2060" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="2061">
+      <c r="A2061" t="inlineStr">
+        <is>
+          <t>Voila - Wine | Dine | Skyline</t>
+        </is>
+      </c>
+      <c r="B2061" t="inlineStr">
+        <is>
+          <t>tel:07303155166</t>
+        </is>
+      </c>
+    </row>
+    <row r="2062">
+      <c r="A2062" t="inlineStr">
+        <is>
+          <t>Crumbelle - Bakery and Cake Shop</t>
+        </is>
+      </c>
+      <c r="B2062" t="inlineStr">
+        <is>
+          <t>tel:07840000950</t>
+        </is>
+      </c>
+    </row>
+    <row r="2063">
+      <c r="A2063" t="inlineStr">
+        <is>
+          <t>Gansta house gaming lounge and cafe</t>
+        </is>
+      </c>
+      <c r="B2063" t="inlineStr">
+        <is>
+          <t>tel:08077172104</t>
+        </is>
+      </c>
+    </row>
+    <row r="2064">
+      <c r="A2064" t="inlineStr">
+        <is>
+          <t>OG's Pizza &amp; Grill</t>
+        </is>
+      </c>
+      <c r="B2064" t="inlineStr">
+        <is>
+          <t>tel:09871066105</t>
+        </is>
+      </c>
+    </row>
+    <row r="2065">
+      <c r="A2065" t="inlineStr">
+        <is>
+          <t>Spize Barbeque Sector-104, Noida</t>
+        </is>
+      </c>
+      <c r="B2065" t="inlineStr">
+        <is>
+          <t>tel:09205669222</t>
+        </is>
+      </c>
+    </row>
+    <row r="2066">
+      <c r="A2066" t="inlineStr">
+        <is>
+          <t>Dreamcatchers</t>
+        </is>
+      </c>
+      <c r="B2066" t="inlineStr">
+        <is>
+          <t>tel:09266538111</t>
+        </is>
+      </c>
+    </row>
+    <row r="2067">
+      <c r="A2067" t="inlineStr">
+        <is>
+          <t>Cafe 08</t>
+        </is>
+      </c>
+      <c r="B2067" t="inlineStr">
+        <is>
+          <t>tel:09310353545</t>
+        </is>
+      </c>
+    </row>
+    <row r="2068">
+      <c r="A2068" t="inlineStr">
+        <is>
+          <t>Chai Bar Cafe</t>
+        </is>
+      </c>
+      <c r="B2068" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="2069">
+      <c r="A2069" t="inlineStr">
+        <is>
+          <t>The Barbeque Company</t>
+        </is>
+      </c>
+      <c r="B2069" t="inlineStr">
+        <is>
+          <t>tel:08800222694</t>
+        </is>
+      </c>
+    </row>
+    <row r="2070">
+      <c r="A2070" t="inlineStr">
+        <is>
+          <t>Cafe Delhi Heights</t>
+        </is>
+      </c>
+      <c r="B2070" t="inlineStr">
+        <is>
+          <t>tel:09711034033</t>
+        </is>
+      </c>
+    </row>
+    <row r="2071">
+      <c r="A2071" t="inlineStr">
+        <is>
+          <t>91 food cafe</t>
+        </is>
+      </c>
+      <c r="B2071" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="2072">
+      <c r="A2072" t="inlineStr">
+        <is>
+          <t>PizzaExpress</t>
+        </is>
+      </c>
+      <c r="B2072" t="inlineStr">
+        <is>
+          <t>tel:08655769472</t>
+        </is>
+      </c>
+    </row>
+    <row r="2073">
+      <c r="A2073" t="inlineStr">
+        <is>
+          <t>Shahi Mahal | Banquet Hall | Restaurant in Noida | Party Hall Noida 122</t>
+        </is>
+      </c>
+      <c r="B2073" t="inlineStr">
+        <is>
+          <t>tel:08826555928</t>
+        </is>
+      </c>
+    </row>
+    <row r="2074">
+      <c r="A2074" t="inlineStr">
+        <is>
+          <t>Teasta Tea Shop</t>
+        </is>
+      </c>
+      <c r="B2074" t="inlineStr">
+        <is>
+          <t>tel:01204276365</t>
+        </is>
+      </c>
+    </row>
+    <row r="2075">
+      <c r="A2075" t="inlineStr">
+        <is>
+          <t>Theobroma Bakery and Cake Shop - Sector 32, Noida</t>
+        </is>
+      </c>
+      <c r="B2075" t="inlineStr">
+        <is>
+          <t>tel:08182881881</t>
+        </is>
+      </c>
+    </row>
+    <row r="2076">
+      <c r="A2076" t="inlineStr">
+        <is>
+          <t>xxxxxhttps://www.google.com/maps/search/cafe+near+noida/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/L_gen.xlsx
+++ b/L_gen.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2076"/>
+  <dimension ref="A1:B2171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
       <selection activeCell="A89" sqref="A89"/>
@@ -23012,6 +23012,1141 @@
         </is>
       </c>
     </row>
+    <row r="2077">
+      <c r="A2077" t="inlineStr">
+        <is>
+          <t>Cafe Lota</t>
+        </is>
+      </c>
+      <c r="B2077" t="inlineStr">
+        <is>
+          <t>tel:07838960787</t>
+        </is>
+      </c>
+    </row>
+    <row r="2078">
+      <c r="A2078" t="inlineStr">
+        <is>
+          <t>Cafe De Meet</t>
+        </is>
+      </c>
+      <c r="B2078" t="inlineStr">
+        <is>
+          <t>tel:08980913000</t>
+        </is>
+      </c>
+    </row>
+    <row r="2079">
+      <c r="A2079" t="inlineStr">
+        <is>
+          <t>Cafe De Meet</t>
+        </is>
+      </c>
+      <c r="B2079" t="inlineStr">
+        <is>
+          <t>tel:08980913000</t>
+        </is>
+      </c>
+    </row>
+    <row r="2080">
+      <c r="A2080" t="inlineStr">
+        <is>
+          <t>Unvind Cafe</t>
+        </is>
+      </c>
+      <c r="B2080" t="inlineStr">
+        <is>
+          <t>tel:08141107070</t>
+        </is>
+      </c>
+    </row>
+    <row r="2081">
+      <c r="A2081" t="inlineStr">
+        <is>
+          <t>Unvind Cafe</t>
+        </is>
+      </c>
+      <c r="B2081" t="inlineStr">
+        <is>
+          <t>tel:08141107070</t>
+        </is>
+      </c>
+    </row>
+    <row r="2082">
+      <c r="A2082" t="inlineStr">
+        <is>
+          <t>Cafe Wink</t>
+        </is>
+      </c>
+      <c r="B2082" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="2083">
+      <c r="A2083" t="inlineStr">
+        <is>
+          <t>Cafe Wink</t>
+        </is>
+      </c>
+      <c r="B2083" t="inlineStr">
+        <is>
+          <t>tel:08448994259</t>
+        </is>
+      </c>
+    </row>
+    <row r="2084">
+      <c r="A2084" t="inlineStr">
+        <is>
+          <t>AMA Cafe | Majnu Ka Tilla</t>
+        </is>
+      </c>
+      <c r="B2084" t="inlineStr">
+        <is>
+          <t>tel:08448994259</t>
+        </is>
+      </c>
+    </row>
+    <row r="2085">
+      <c r="A2085" t="inlineStr">
+        <is>
+          <t>AMA Cafe | Majnu Ka Tilla</t>
+        </is>
+      </c>
+      <c r="B2085" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="2086">
+      <c r="A2086" t="inlineStr">
+        <is>
+          <t>Cine Tree Cafe | Best Coffee shop near Connaught place</t>
+        </is>
+      </c>
+      <c r="B2086" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="2087">
+      <c r="A2087" t="inlineStr">
+        <is>
+          <t>Cafe Dori</t>
+        </is>
+      </c>
+      <c r="B2087" t="inlineStr">
+        <is>
+          <t>tel:08076054238</t>
+        </is>
+      </c>
+    </row>
+    <row r="2088">
+      <c r="A2088" t="inlineStr">
+        <is>
+          <t>Cafe Dori</t>
+        </is>
+      </c>
+      <c r="B2088" t="inlineStr">
+        <is>
+          <t>tel:08076054238</t>
+        </is>
+      </c>
+    </row>
+    <row r="2089">
+      <c r="A2089" t="inlineStr">
+        <is>
+          <t>Nobby's Cafe</t>
+        </is>
+      </c>
+      <c r="B2089" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="2090">
+      <c r="A2090" t="inlineStr">
+        <is>
+          <t>Nobby's Cafe</t>
+        </is>
+      </c>
+      <c r="B2090" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="2091">
+      <c r="A2091" t="inlineStr">
+        <is>
+          <t>except_name</t>
+        </is>
+      </c>
+      <c r="B2091" t="inlineStr">
+        <is>
+          <t>tel:09173092613</t>
+        </is>
+      </c>
+    </row>
+    <row r="2092">
+      <c r="A2092" t="inlineStr">
+        <is>
+          <t>Café Coffee Day</t>
+        </is>
+      </c>
+      <c r="B2092" t="inlineStr">
+        <is>
+          <t>tel:18001025093</t>
+        </is>
+      </c>
+    </row>
+    <row r="2093">
+      <c r="A2093" t="inlineStr">
+        <is>
+          <t>Café Coffee Day</t>
+        </is>
+      </c>
+      <c r="B2093" t="inlineStr">
+        <is>
+          <t>tel:18001025093</t>
+        </is>
+      </c>
+    </row>
+    <row r="2094">
+      <c r="A2094" t="inlineStr">
+        <is>
+          <t>Brownie Cafe</t>
+        </is>
+      </c>
+      <c r="B2094" t="inlineStr">
+        <is>
+          <t>tel:08860081995</t>
+        </is>
+      </c>
+    </row>
+    <row r="2095">
+      <c r="A2095" t="inlineStr">
+        <is>
+          <t>Brownie Cafe</t>
+        </is>
+      </c>
+      <c r="B2095" t="inlineStr">
+        <is>
+          <t>tel:08860081995</t>
+        </is>
+      </c>
+    </row>
+    <row r="2096">
+      <c r="A2096" t="inlineStr">
+        <is>
+          <t>The Brew Boat Cafe</t>
+        </is>
+      </c>
+      <c r="B2096" t="inlineStr">
+        <is>
+          <t>tel:08384053931</t>
+        </is>
+      </c>
+    </row>
+    <row r="2097">
+      <c r="A2097" t="inlineStr">
+        <is>
+          <t>The Brew Boat Cafe</t>
+        </is>
+      </c>
+      <c r="B2097" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="2098">
+      <c r="A2098" t="inlineStr">
+        <is>
+          <t>Guliyano Cafe</t>
+        </is>
+      </c>
+      <c r="B2098" t="inlineStr">
+        <is>
+          <t>tel:09212508354</t>
+        </is>
+      </c>
+    </row>
+    <row r="2099">
+      <c r="A2099" t="inlineStr">
+        <is>
+          <t>Guliyano Cafe</t>
+        </is>
+      </c>
+      <c r="B2099" t="inlineStr">
+        <is>
+          <t>tel:09212508354</t>
+        </is>
+      </c>
+    </row>
+    <row r="2100">
+      <c r="A2100" t="inlineStr">
+        <is>
+          <t>Guliyano Cafe</t>
+        </is>
+      </c>
+      <c r="B2100" t="inlineStr">
+        <is>
+          <t>tel:09212508354</t>
+        </is>
+      </c>
+    </row>
+    <row r="2101">
+      <c r="A2101" t="inlineStr">
+        <is>
+          <t>American Brew - All day American Breakfast &amp; Cafe</t>
+        </is>
+      </c>
+      <c r="B2101" t="inlineStr">
+        <is>
+          <t>tel:09315284977</t>
+        </is>
+      </c>
+    </row>
+    <row r="2102">
+      <c r="A2102" t="inlineStr">
+        <is>
+          <t>American Brew - All day American Breakfast &amp; Cafe</t>
+        </is>
+      </c>
+      <c r="B2102" t="inlineStr">
+        <is>
+          <t>tel:09315284977</t>
+        </is>
+      </c>
+    </row>
+    <row r="2103">
+      <c r="A2103" t="inlineStr">
+        <is>
+          <t>American Brew - All day American Breakfast &amp; Cafe</t>
+        </is>
+      </c>
+      <c r="B2103" t="inlineStr">
+        <is>
+          <t>tel:09315284977</t>
+        </is>
+      </c>
+    </row>
+    <row r="2104">
+      <c r="A2104" t="inlineStr">
+        <is>
+          <t>American Brew - All day American Breakfast &amp; Cafe</t>
+        </is>
+      </c>
+      <c r="B2104" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="2105">
+      <c r="A2105" t="inlineStr">
+        <is>
+          <t>Perch Wine &amp; Coffee Bar</t>
+        </is>
+      </c>
+      <c r="B2105" t="inlineStr">
+        <is>
+          <t>tel:08373976637</t>
+        </is>
+      </c>
+    </row>
+    <row r="2106">
+      <c r="A2106" t="inlineStr">
+        <is>
+          <t>Perch Wine &amp; Coffee Bar</t>
+        </is>
+      </c>
+      <c r="B2106" t="inlineStr">
+        <is>
+          <t>tel:08373976637</t>
+        </is>
+      </c>
+    </row>
+    <row r="2107">
+      <c r="A2107" t="inlineStr">
+        <is>
+          <t>Perch Wine &amp; Coffee Bar</t>
+        </is>
+      </c>
+      <c r="B2107" t="inlineStr">
+        <is>
+          <t>tel:08373976637</t>
+        </is>
+      </c>
+    </row>
+    <row r="2108">
+      <c r="A2108" t="inlineStr">
+        <is>
+          <t>Farzi Cafe</t>
+        </is>
+      </c>
+      <c r="B2108" t="inlineStr">
+        <is>
+          <t>tel:09599889701</t>
+        </is>
+      </c>
+    </row>
+    <row r="2109">
+      <c r="A2109" t="inlineStr">
+        <is>
+          <t>Farzi Cafe</t>
+        </is>
+      </c>
+      <c r="B2109" t="inlineStr">
+        <is>
+          <t>tel:09599889701</t>
+        </is>
+      </c>
+    </row>
+    <row r="2110">
+      <c r="A2110" t="inlineStr">
+        <is>
+          <t>Farzi Cafe</t>
+        </is>
+      </c>
+      <c r="B2110" t="inlineStr">
+        <is>
+          <t>tel:09599889701</t>
+        </is>
+      </c>
+    </row>
+    <row r="2111">
+      <c r="A2111" t="inlineStr">
+        <is>
+          <t>Cafe Coffee Day</t>
+        </is>
+      </c>
+      <c r="B2111" t="inlineStr">
+        <is>
+          <t>tel:18001025093</t>
+        </is>
+      </c>
+    </row>
+    <row r="2112">
+      <c r="A2112" t="inlineStr">
+        <is>
+          <t>Cafe Coffee Day</t>
+        </is>
+      </c>
+      <c r="B2112" t="inlineStr">
+        <is>
+          <t>tel:18001025093</t>
+        </is>
+      </c>
+    </row>
+    <row r="2113">
+      <c r="A2113" t="inlineStr">
+        <is>
+          <t>Cafe Coffee Day</t>
+        </is>
+      </c>
+      <c r="B2113" t="inlineStr">
+        <is>
+          <t>tel:18001025093</t>
+        </is>
+      </c>
+    </row>
+    <row r="2114">
+      <c r="A2114" t="inlineStr">
+        <is>
+          <t>Roasted by Roseate</t>
+        </is>
+      </c>
+      <c r="B2114" t="inlineStr">
+        <is>
+          <t>tel:09871200654</t>
+        </is>
+      </c>
+    </row>
+    <row r="2115">
+      <c r="A2115" t="inlineStr">
+        <is>
+          <t>Roasted by Roseate</t>
+        </is>
+      </c>
+      <c r="B2115" t="inlineStr">
+        <is>
+          <t>tel:09871200654</t>
+        </is>
+      </c>
+    </row>
+    <row r="2116">
+      <c r="A2116" t="inlineStr">
+        <is>
+          <t>Roasted by Roseate</t>
+        </is>
+      </c>
+      <c r="B2116" t="inlineStr">
+        <is>
+          <t>tel:09871200654</t>
+        </is>
+      </c>
+    </row>
+    <row r="2117">
+      <c r="A2117" t="inlineStr">
+        <is>
+          <t>Roasted by Roseate</t>
+        </is>
+      </c>
+      <c r="B2117" t="inlineStr">
+        <is>
+          <t>tel:09871200654</t>
+        </is>
+      </c>
+    </row>
+    <row r="2118">
+      <c r="A2118" t="inlineStr">
+        <is>
+          <t>The Tin Whistle, The British Council</t>
+        </is>
+      </c>
+      <c r="B2118" t="inlineStr">
+        <is>
+          <t>tel:09810204427</t>
+        </is>
+      </c>
+    </row>
+    <row r="2119">
+      <c r="A2119" t="inlineStr">
+        <is>
+          <t>Exotic Rooftop Cafe &amp; Restaurant</t>
+        </is>
+      </c>
+      <c r="B2119" t="inlineStr">
+        <is>
+          <t>tel:09999789676</t>
+        </is>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="A2120" t="inlineStr">
+        <is>
+          <t>Exotic Rooftop Cafe &amp; Restaurant</t>
+        </is>
+      </c>
+      <c r="B2120" t="inlineStr">
+        <is>
+          <t>tel:09999789676</t>
+        </is>
+      </c>
+    </row>
+    <row r="2121">
+      <c r="A2121" t="inlineStr">
+        <is>
+          <t>Exotic Rooftop Cafe &amp; Restaurant</t>
+        </is>
+      </c>
+      <c r="B2121" t="inlineStr">
+        <is>
+          <t>tel:09999789676</t>
+        </is>
+      </c>
+    </row>
+    <row r="2122">
+      <c r="A2122" t="inlineStr">
+        <is>
+          <t>Mister Chai</t>
+        </is>
+      </c>
+      <c r="B2122" t="inlineStr">
+        <is>
+          <t>tel:01141191020</t>
+        </is>
+      </c>
+    </row>
+    <row r="2123">
+      <c r="A2123" t="inlineStr">
+        <is>
+          <t>Mister Chai</t>
+        </is>
+      </c>
+      <c r="B2123" t="inlineStr">
+        <is>
+          <t>tel:01141191020</t>
+        </is>
+      </c>
+    </row>
+    <row r="2124">
+      <c r="A2124" t="inlineStr">
+        <is>
+          <t>Mister Chai</t>
+        </is>
+      </c>
+      <c r="B2124" t="inlineStr">
+        <is>
+          <t>tel:01141191020</t>
+        </is>
+      </c>
+    </row>
+    <row r="2125">
+      <c r="A2125" t="inlineStr">
+        <is>
+          <t>Shinchann Cafe</t>
+        </is>
+      </c>
+      <c r="B2125" t="inlineStr">
+        <is>
+          <t>tel:09999100144</t>
+        </is>
+      </c>
+    </row>
+    <row r="2126">
+      <c r="A2126" t="inlineStr">
+        <is>
+          <t>Shinchann Cafe</t>
+        </is>
+      </c>
+      <c r="B2126" t="inlineStr">
+        <is>
+          <t>tel:09999100144</t>
+        </is>
+      </c>
+    </row>
+    <row r="2127">
+      <c r="A2127" t="inlineStr">
+        <is>
+          <t>Shinchann Cafe</t>
+        </is>
+      </c>
+      <c r="B2127" t="inlineStr">
+        <is>
+          <t>tel:09999100144</t>
+        </is>
+      </c>
+    </row>
+    <row r="2128">
+      <c r="A2128" t="inlineStr">
+        <is>
+          <t>Shinchann Cafe</t>
+        </is>
+      </c>
+      <c r="B2128" t="inlineStr">
+        <is>
+          <t>tel:09289517722</t>
+        </is>
+      </c>
+    </row>
+    <row r="2129">
+      <c r="A2129" t="inlineStr">
+        <is>
+          <t>Kenangan Coffee</t>
+        </is>
+      </c>
+      <c r="B2129" t="inlineStr">
+        <is>
+          <t>tel:09289517722</t>
+        </is>
+      </c>
+    </row>
+    <row r="2130">
+      <c r="A2130" t="inlineStr">
+        <is>
+          <t>Kenangan Coffee</t>
+        </is>
+      </c>
+      <c r="B2130" t="inlineStr">
+        <is>
+          <t>tel:09289517722</t>
+        </is>
+      </c>
+    </row>
+    <row r="2131">
+      <c r="A2131" t="inlineStr">
+        <is>
+          <t>Kenangan Coffee</t>
+        </is>
+      </c>
+      <c r="B2131" t="inlineStr">
+        <is>
+          <t>tel:09289517722</t>
+        </is>
+      </c>
+    </row>
+    <row r="2132">
+      <c r="A2132" t="inlineStr">
+        <is>
+          <t>Kenangan Coffee</t>
+        </is>
+      </c>
+      <c r="B2132" t="inlineStr">
+        <is>
+          <t>tel:09289517722</t>
+        </is>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="A2133" t="inlineStr">
+        <is>
+          <t>Kenangan Coffee</t>
+        </is>
+      </c>
+      <c r="B2133" t="inlineStr">
+        <is>
+          <t>tel:09289517722</t>
+        </is>
+      </c>
+    </row>
+    <row r="2134">
+      <c r="A2134" t="inlineStr">
+        <is>
+          <t>Kenangan Coffee</t>
+        </is>
+      </c>
+      <c r="B2134" t="inlineStr">
+        <is>
+          <t>tel:09289517722</t>
+        </is>
+      </c>
+    </row>
+    <row r="2135">
+      <c r="A2135" t="inlineStr">
+        <is>
+          <t>Foresta Bistro and Cafe</t>
+        </is>
+      </c>
+      <c r="B2135" t="inlineStr">
+        <is>
+          <t>tel:09710009004</t>
+        </is>
+      </c>
+    </row>
+    <row r="2136">
+      <c r="A2136" t="inlineStr">
+        <is>
+          <t>Foresta Bistro and Cafe</t>
+        </is>
+      </c>
+      <c r="B2136" t="inlineStr">
+        <is>
+          <t>tel:09710009004</t>
+        </is>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="A2137" t="inlineStr">
+        <is>
+          <t>Foresta Bistro and Cafe</t>
+        </is>
+      </c>
+      <c r="B2137" t="inlineStr">
+        <is>
+          <t>tel:09710009004</t>
+        </is>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="A2138" t="inlineStr">
+        <is>
+          <t>Breakin' Brew</t>
+        </is>
+      </c>
+      <c r="B2138" t="inlineStr">
+        <is>
+          <t>tel:09818189165</t>
+        </is>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="A2139" t="inlineStr">
+        <is>
+          <t>R The Lounge</t>
+        </is>
+      </c>
+      <c r="B2139" t="inlineStr">
+        <is>
+          <t>tel:01126779191</t>
+        </is>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="A2140" t="inlineStr">
+        <is>
+          <t>Cafe Unbound Satya Niketan</t>
+        </is>
+      </c>
+      <c r="B2140" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="A2141" t="inlineStr">
+        <is>
+          <t>Cafe Unbound Satya Niketan</t>
+        </is>
+      </c>
+      <c r="B2141" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="A2142" t="inlineStr">
+        <is>
+          <t>Cafe Delhi Heights</t>
+        </is>
+      </c>
+      <c r="B2142" t="inlineStr">
+        <is>
+          <t>tel:09811454033</t>
+        </is>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="A2143" t="inlineStr">
+        <is>
+          <t>Cafe Delhi Heights</t>
+        </is>
+      </c>
+      <c r="B2143" t="inlineStr">
+        <is>
+          <t>tel:09811454033</t>
+        </is>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" t="inlineStr">
+        <is>
+          <t>Cafe On 3 at Holiday Inn Mayur Vihar</t>
+        </is>
+      </c>
+      <c r="B2144" t="inlineStr">
+        <is>
+          <t>tel:08860634441</t>
+        </is>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" t="inlineStr">
+        <is>
+          <t>Cafe On 3 at Holiday Inn Mayur Vihar</t>
+        </is>
+      </c>
+      <c r="B2145" t="inlineStr">
+        <is>
+          <t>tel:08860634441</t>
+        </is>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" t="inlineStr">
+        <is>
+          <t>LALAJI Ki Dukaan</t>
+        </is>
+      </c>
+      <c r="B2146" t="inlineStr">
+        <is>
+          <t>tel:09958993716</t>
+        </is>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" t="inlineStr">
+        <is>
+          <t>LALAJI Ki Dukaan</t>
+        </is>
+      </c>
+      <c r="B2147" t="inlineStr">
+        <is>
+          <t>tel:09958993716</t>
+        </is>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" t="inlineStr">
+        <is>
+          <t>LALAJI Ki Dukaan</t>
+        </is>
+      </c>
+      <c r="B2148" t="inlineStr">
+        <is>
+          <t>tel:09810130767</t>
+        </is>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" t="inlineStr">
+        <is>
+          <t>Cafe quick bites</t>
+        </is>
+      </c>
+      <c r="B2149" t="inlineStr">
+        <is>
+          <t>tel:09810130767</t>
+        </is>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" t="inlineStr">
+        <is>
+          <t>Kartoon Cafe Janakpuri</t>
+        </is>
+      </c>
+      <c r="B2150" t="inlineStr">
+        <is>
+          <t>tel:09873661133</t>
+        </is>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" t="inlineStr">
+        <is>
+          <t>Kartoon Cafe Janakpuri</t>
+        </is>
+      </c>
+      <c r="B2151" t="inlineStr">
+        <is>
+          <t>tel:09873661133</t>
+        </is>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" t="inlineStr">
+        <is>
+          <t>Kaffa Cerrado - The Roastery</t>
+        </is>
+      </c>
+      <c r="B2152" t="inlineStr">
+        <is>
+          <t>tel:01141326705</t>
+        </is>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" t="inlineStr">
+        <is>
+          <t>Skeleton Cafe</t>
+        </is>
+      </c>
+      <c r="B2153" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" t="inlineStr">
+        <is>
+          <t>Łové Café</t>
+        </is>
+      </c>
+      <c r="B2154" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" t="inlineStr">
+        <is>
+          <t>The Turkey Project</t>
+        </is>
+      </c>
+      <c r="B2155" t="inlineStr">
+        <is>
+          <t>tel:01140349066</t>
+        </is>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" t="inlineStr">
+        <is>
+          <t>The Turkey Project</t>
+        </is>
+      </c>
+      <c r="B2156" t="inlineStr">
+        <is>
+          <t>tel:01140349066</t>
+        </is>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" t="inlineStr">
+        <is>
+          <t>The Turkey Project</t>
+        </is>
+      </c>
+      <c r="B2157" t="inlineStr">
+        <is>
+          <t>tel:01140349066</t>
+        </is>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" t="inlineStr">
+        <is>
+          <t>Unwind Cafe</t>
+        </is>
+      </c>
+      <c r="B2158" t="inlineStr">
+        <is>
+          <t>tel:08448988002</t>
+        </is>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" t="inlineStr">
+        <is>
+          <t>Unwind Cafe</t>
+        </is>
+      </c>
+      <c r="B2159" t="inlineStr">
+        <is>
+          <t>tel:08448988002</t>
+        </is>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" t="inlineStr">
+        <is>
+          <t>Unwind Cafe</t>
+        </is>
+      </c>
+      <c r="B2160" t="inlineStr">
+        <is>
+          <t>tel:08448988002</t>
+        </is>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" t="inlineStr">
+        <is>
+          <t>OVAL BEAN CAFE</t>
+        </is>
+      </c>
+      <c r="B2161" t="inlineStr">
+        <is>
+          <t>tel:08468813866</t>
+        </is>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" t="inlineStr">
+        <is>
+          <t>OVAL BEAN CAFE</t>
+        </is>
+      </c>
+      <c r="B2162" t="inlineStr">
+        <is>
+          <t>tel:08468813866</t>
+        </is>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" t="inlineStr">
+        <is>
+          <t>OVAL BEAN CAFE</t>
+        </is>
+      </c>
+      <c r="B2163" t="inlineStr">
+        <is>
+          <t>tel:08468813866</t>
+        </is>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" t="inlineStr">
+        <is>
+          <t>The Greenyard cafe</t>
+        </is>
+      </c>
+      <c r="B2164" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" t="inlineStr">
+        <is>
+          <t>Cool Point Cafe</t>
+        </is>
+      </c>
+      <c r="B2165" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" t="inlineStr">
+        <is>
+          <t>Cool Point Cafe</t>
+        </is>
+      </c>
+      <c r="B2166" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" t="inlineStr">
+        <is>
+          <t>Cool Point Cafe</t>
+        </is>
+      </c>
+      <c r="B2167" t="inlineStr">
+        <is>
+          <t>except_phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" t="inlineStr">
+        <is>
+          <t>Chai Point - B Block, Connaught Place</t>
+        </is>
+      </c>
+      <c r="B2168" t="inlineStr">
+        <is>
+          <t>tel:07670824196</t>
+        </is>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" t="inlineStr">
+        <is>
+          <t>Chai Point - B Block, Connaught Place</t>
+        </is>
+      </c>
+      <c r="B2169" t="inlineStr">
+        <is>
+          <t>tel:07670824196</t>
+        </is>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" t="inlineStr">
+        <is>
+          <t>Hamoni: Cafe by the Greens</t>
+        </is>
+      </c>
+      <c r="B2170" t="inlineStr">
+        <is>
+          <t>tel:07290038887</t>
+        </is>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" t="inlineStr">
+        <is>
+          <t>xxxxxhttps://www.google.com/maps/search/cafe+near+new+delhi/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
